--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -451,911 +451,1231 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>401.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.4054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>001182</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>易方达安心回馈混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>39.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000574</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000936</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>050004</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>66.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>73.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>920002</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中金精选股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>920922</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004677</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>67.94</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007574</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006158</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006159</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1365,7 +1685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,15 +1706,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>002351</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>易方达裕祥回报债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.47</t>
+          <t>341.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>050004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>博时精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003839</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合A</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003840</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合C</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.17</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003883</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合C</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>29.17</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.31</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>003601</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>申万菱信安鑫精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>中金精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>61.05</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>61.05</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005281</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中科沃土转型升级灵活配置混合</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>72.39</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1826,25 +2306,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>050004</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时精选混合A</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>003602</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>申万菱信安鑫精选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002351</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>易方达裕祥回报债券</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003601</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>申万菱信安鑫精选混合A</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>31.41</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003602</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>申万菱信安鑫精选混合C</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31.41</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>920922</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>中金精选股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>003883</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>易方达瑞弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>005281</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中金精选股票A</t>
+          <t>中科沃土转型升级灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>920922</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中金精选股票C</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3063,4 +3064,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4032,4 +4033,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4583,4 +4584,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4592,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4603,17 +4604,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4623,14 +4644,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.64</v>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4639,14 +4682,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.16</v>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4655,14 +4720,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.76</v>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4671,13 +4758,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>24.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4915,7 +4916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4926,17 +4927,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4946,14 +4967,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4962,14 +5005,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.64</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4978,14 +5043,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.16</v>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4994,14 +5081,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>8.76</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6">
@@ -5010,13 +5219,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>24.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5124,7 +5125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5135,17 +5136,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5155,14 +5176,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5171,14 +5214,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5187,14 +5252,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.64</v>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5203,14 +5290,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.16</v>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5219,14 +5328,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.76</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5235,13 +5366,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>24.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.64</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>8.76</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>24.86</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2001,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4355,7 +4504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600066-宇通客车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>8.76</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1264 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>24.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>401.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.4054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1868,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +2567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1600,7 +3097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2150,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3118,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4502,1238 +5999,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中小盘混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>401.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>16.4054</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7968</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.5241</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006158</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8064</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6174</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4941</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000574</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3557</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3057</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>73.87</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2885</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>920002</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中金精选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2693</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2457</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>66.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2200</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000936</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2150</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2024</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1955</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1861</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1469</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004677</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>67.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1437</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1424</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1104</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006159</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>920922</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007574</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>